--- a/impact/static/CSRD/ESRS-G1/Tableau-ESRS-G1.xlsx
+++ b/impact/static/CSRD/ESRS-G1/Tableau-ESRS-G1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmonteiro-de-mac-adc\Desktop\ancien bureau\Fichier\CSRD\Tableau ESRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhvidefaux/Desktop/DESIGN &amp; MOTION/PRO/MISSIONS EN COURS/PORTAIL RSE/EXCELS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5173C21-FED7-4D9B-BFA4-3FBE99D75CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1D95A-B513-ED4C-81C5-57EEB57B0B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C44CEE00-3F61-4599-8D9A-B3BFCE546B10}"/>
+    <workbookView xWindow="19240" yWindow="3500" windowWidth="27780" windowHeight="21660" xr2:uid="{C44CEE00-3F61-4599-8D9A-B3BFCE546B10}"/>
   </bookViews>
   <sheets>
-    <sheet name="G1-3" sheetId="1" r:id="rId1"/>
-    <sheet name="G1-5" sheetId="2" r:id="rId2"/>
+    <sheet name="&gt;&gt;&gt;" sheetId="3" r:id="rId1"/>
+    <sheet name="G1-3" sheetId="1" r:id="rId2"/>
+    <sheet name="G1-5" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t xml:space="preserve">Fonctions à risque </t>
   </si>
@@ -88,9 +89,6 @@
     <t xml:space="preserve">Définition de la corruption </t>
   </si>
   <si>
-    <t xml:space="preserve">Formation à la lutte contre la corruption et les pots-de-vin </t>
-  </si>
-  <si>
     <t>5h</t>
   </si>
   <si>
@@ -116,9 +114,6 @@
   </si>
   <si>
     <t>Financement en faveur d’EFG</t>
-  </si>
-  <si>
-    <t>Engagement politique (y compris les activités de lobbying)</t>
   </si>
   <si>
     <t>2023
@@ -128,17 +123,30 @@
     <t xml:space="preserve">Formation en classe </t>
   </si>
   <si>
-    <t>AR 8</t>
-  </si>
-  <si>
-    <t>AR 15</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GOUVERNANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR 8 - Formation à la lutte contre la corruption et les pots-de-vin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR 15 - Formation à la lutte contre la corruption et les pots-de-vin </t>
+  </si>
+  <si>
+    <t>ESRS G1 - Conduite des affaires</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_)_ ;_ * \(#,##0\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,135 +160,83 @@
       <name val="Marianne"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Marianne"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Marianne Medium"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Marianne"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Marianne Medium"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FF0063CB"/>
+      <name val="Marianne"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Marianne ExtraBold"/>
+      <color rgb="FF0063CB"/>
+      <name val="Marianne"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0063CB"/>
+      <name val="Marianne"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8EDFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -294,110 +250,114 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <left style="medium">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE8EDFF"/>
+      <color rgb="FF0063CB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,10 +369,120 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1367991</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="Logo-Ministère-de-l'économie-et-des-finances-(2020) - EXAG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB022F18-C423-1F40-BE15-58FC4BDCE049}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1054100" y="571500"/>
+          <a:ext cx="1367991" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8615B4-DACC-9546-9215-3E0EA7FFD295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10960100" y="571500"/>
+          <a:ext cx="1257300" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -450,7 +520,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -556,7 +626,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -698,301 +768,383 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB605B-8F9E-41C7-B7C7-5FB23756DD9D}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B7AB12-5090-6448-A743-28F9F3DBD407}">
+  <sheetPr>
+    <tabColor rgb="FFE8EDFF"/>
+  </sheetPr>
+  <dimension ref="C10:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="3" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="73" x14ac:dyDescent="0.95">
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB605B-8F9E-41C7-B7C7-5FB23756DD9D}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="13">
+        <v>20000</v>
+      </c>
+      <c r="C4" s="13">
+        <v>200</v>
+      </c>
+      <c r="D4" s="13">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="13">
+        <v>19500</v>
+      </c>
+      <c r="C5" s="13">
+        <v>150</v>
+      </c>
+      <c r="D5" s="13">
+        <v>8</v>
+      </c>
+      <c r="E5" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12">
-        <v>20000</v>
-      </c>
-      <c r="D5" s="13">
-        <v>200</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="14">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="12">
-        <v>19500</v>
-      </c>
-      <c r="D6" s="13">
-        <v>150</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="B13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="14">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
+      <c r="B15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="B16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614EB1B4-BF72-4CAD-BA86-41F98756F215}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="47.1640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+    <row r="1" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="25" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="17">
+        <v>100</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="17">
+        <v>75</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="17">
+        <v>25</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="26">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9">
-        <v>100</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="15">
-        <v>75</v>
-      </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="17">
-        <v>25</v>
-      </c>
-      <c r="D6" s="19"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
